--- a/Code/Results/Cases/Case_0_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616642655405229</v>
+        <v>0.05052846209076733</v>
       </c>
       <c r="D2">
-        <v>0.02970708391178789</v>
+        <v>0.008943546438445082</v>
       </c>
       <c r="E2">
-        <v>1.594460465120534</v>
+        <v>0.4304237066138796</v>
       </c>
       <c r="F2">
-        <v>2.584235742140606</v>
+        <v>1.038957906139956</v>
       </c>
       <c r="G2">
-        <v>0.000705632011080759</v>
+        <v>0.002342237695844014</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>9.006164563466086</v>
+        <v>3.581084263747925</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1386272236732822</v>
+        <v>0.04476206481484724</v>
       </c>
       <c r="D3">
-        <v>0.02511701949629241</v>
+        <v>0.007995848526245908</v>
       </c>
       <c r="E3">
-        <v>1.353986092680458</v>
+        <v>0.3748685171766653</v>
       </c>
       <c r="F3">
-        <v>2.219743332004583</v>
+        <v>0.9555018548654601</v>
       </c>
       <c r="G3">
-        <v>0.0007153513486988738</v>
+        <v>0.00234811694982799</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>7.73154917412495</v>
+        <v>3.290152896055872</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1248020242019408</v>
+        <v>0.04124261813031183</v>
       </c>
       <c r="D4">
-        <v>0.02242287203795712</v>
+        <v>0.007420112891711739</v>
       </c>
       <c r="E4">
-        <v>1.211606285751628</v>
+        <v>0.3409164150051254</v>
       </c>
       <c r="F4">
-        <v>2.00204993930565</v>
+        <v>0.9049358929064368</v>
       </c>
       <c r="G4">
-        <v>0.0007214268424797653</v>
+        <v>0.002351912108017545</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>6.970712635479231</v>
+        <v>3.113860341885299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1192357591110351</v>
+        <v>0.03981353979416724</v>
       </c>
       <c r="D5">
-        <v>0.02135083120818493</v>
+        <v>0.007186965551756685</v>
       </c>
       <c r="E5">
-        <v>1.154679014022605</v>
+        <v>0.3271169890140158</v>
       </c>
       <c r="F5">
-        <v>1.91463890282337</v>
+        <v>0.8844966276862749</v>
       </c>
       <c r="G5">
-        <v>0.00072393329072671</v>
+        <v>0.002353505441391185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>6.665300722229176</v>
+        <v>3.042596276585243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1183152230019999</v>
+        <v>0.03957654638250574</v>
       </c>
       <c r="D6">
-        <v>0.02117423796297757</v>
+        <v>0.007148338117151098</v>
       </c>
       <c r="E6">
-        <v>1.145286168558926</v>
+        <v>0.3248276933736634</v>
       </c>
       <c r="F6">
-        <v>1.900196598209064</v>
+        <v>0.8811126802679041</v>
       </c>
       <c r="G6">
-        <v>0.0007243514301555898</v>
+        <v>0.002353772843655402</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>6.614844552026682</v>
+        <v>3.030797410986395</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1247266976466079</v>
+        <v>0.04122332458327094</v>
       </c>
       <c r="D7">
-        <v>0.02240831601757876</v>
+        <v>0.007416962736222388</v>
       </c>
       <c r="E7">
-        <v>1.21083439943834</v>
+        <v>0.3407301688095856</v>
       </c>
       <c r="F7">
-        <v>2.000866106462155</v>
+        <v>0.9046595708997387</v>
       </c>
       <c r="G7">
-        <v>0.0007214605170748728</v>
+        <v>0.002351933406542927</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392824</v>
       </c>
       <c r="O7">
-        <v>6.966576015246801</v>
+        <v>3.112896930884858</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1536465899729791</v>
+        <v>0.04853570168489796</v>
       </c>
       <c r="D8">
-        <v>0.02809516158028202</v>
+        <v>0.008615455172794384</v>
       </c>
       <c r="E8">
-        <v>1.510299793044851</v>
+        <v>0.4112330468379781</v>
       </c>
       <c r="F8">
-        <v>2.457140665880402</v>
+        <v>1.010039843139111</v>
       </c>
       <c r="G8">
-        <v>0.0007089631371620504</v>
+        <v>0.002344226522347518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>8.561615141875563</v>
+        <v>3.480278027715315</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2135628589110894</v>
+        <v>0.06305247523309276</v>
       </c>
       <c r="D9">
-        <v>0.04052597297091154</v>
+        <v>0.01101820639424744</v>
       </c>
       <c r="E9">
-        <v>2.152047299929976</v>
+        <v>0.5509232592974627</v>
       </c>
       <c r="F9">
-        <v>3.412755547217131</v>
+        <v>1.222218960642749</v>
       </c>
       <c r="G9">
-        <v>0.0006851240480367721</v>
+        <v>0.002330574835277527</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>11.90691495048605</v>
+        <v>4.219864929822393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2606497903197891</v>
+        <v>0.07384021095181481</v>
       </c>
       <c r="D10">
-        <v>0.05095437926060953</v>
+        <v>0.0128208404012895</v>
       </c>
       <c r="E10">
-        <v>2.679009966977944</v>
+        <v>0.6546786155740136</v>
       </c>
       <c r="F10">
-        <v>4.172877851327911</v>
+        <v>1.381719871913816</v>
       </c>
       <c r="G10">
-        <v>0.0006677005182116974</v>
+        <v>0.002321423881673422</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>14.5726240977209</v>
+        <v>4.775787231787206</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2830529930174492</v>
+        <v>0.07877756143588499</v>
       </c>
       <c r="D11">
-        <v>0.05613763538067218</v>
+        <v>0.01365020014181084</v>
       </c>
       <c r="E11">
-        <v>2.937608412518998</v>
+        <v>0.7021797081820296</v>
       </c>
       <c r="F11">
-        <v>4.537336501337876</v>
+        <v>1.455119823126978</v>
       </c>
       <c r="G11">
-        <v>0.0006597017081720352</v>
+        <v>0.002317449146422014</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>15.8523493020632</v>
+        <v>5.03161050597248</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2917114397853169</v>
+        <v>0.08065175668153302</v>
       </c>
       <c r="D12">
-        <v>0.05818144211198728</v>
+        <v>0.01396569544306914</v>
       </c>
       <c r="E12">
-        <v>3.039024236026052</v>
+        <v>0.7202150718742786</v>
       </c>
       <c r="F12">
-        <v>4.678687010994736</v>
+        <v>1.48303976134892</v>
       </c>
       <c r="G12">
-        <v>0.0006566522799804017</v>
+        <v>0.002315970862815239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>16.34896204793529</v>
+        <v>5.128920722311477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2898382969727464</v>
+        <v>0.08024791027808931</v>
       </c>
       <c r="D13">
-        <v>0.05773732896591355</v>
+        <v>0.01389768257172364</v>
       </c>
       <c r="E13">
-        <v>3.017012496312631</v>
+        <v>0.71632864187238</v>
       </c>
       <c r="F13">
-        <v>4.648084086796132</v>
+        <v>1.477021082648264</v>
       </c>
       <c r="G13">
-        <v>0.0006573101249291899</v>
+        <v>0.002316288045991044</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>16.24142962317228</v>
+        <v>5.107943632011711</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2837616057532273</v>
+        <v>0.07893166058704537</v>
       </c>
       <c r="D14">
-        <v>0.05630403645336202</v>
+        <v>0.01367612683555564</v>
       </c>
       <c r="E14">
-        <v>2.945876757517496</v>
+        <v>0.7036625070413294</v>
       </c>
       <c r="F14">
-        <v>4.54889429309452</v>
+        <v>1.45741428624936</v>
       </c>
       <c r="G14">
-        <v>0.000659451305863321</v>
+        <v>0.002317326989631076</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>15.89294966281477</v>
+        <v>5.039607467092196</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2800633479051413</v>
+        <v>0.07812601590303814</v>
       </c>
       <c r="D15">
-        <v>0.05543726995900755</v>
+        <v>0.01354060719010874</v>
       </c>
       <c r="E15">
-        <v>2.902785404030951</v>
+        <v>0.6959104778898961</v>
       </c>
       <c r="F15">
-        <v>4.488594414523362</v>
+        <v>1.445420948117004</v>
       </c>
       <c r="G15">
-        <v>0.0006607598387359935</v>
+        <v>0.002317966865639248</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>15.68113938190868</v>
+        <v>4.997806726364843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2592081678895113</v>
+        <v>0.07351816499694053</v>
       </c>
       <c r="D16">
-        <v>0.05062589802949446</v>
+        <v>0.0127668354652215</v>
       </c>
       <c r="E16">
-        <v>2.662551304775221</v>
+        <v>0.6515807523204415</v>
       </c>
       <c r="F16">
-        <v>4.149487771741548</v>
+        <v>1.376940287943825</v>
       </c>
       <c r="G16">
-        <v>0.0006682209954864488</v>
+        <v>0.002321687408931128</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>14.49053034799169</v>
+        <v>4.759128753694995</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.246687601893413</v>
+        <v>0.07069922541701601</v>
       </c>
       <c r="D17">
-        <v>0.04779804100954266</v>
+        <v>0.0122946071648613</v>
       </c>
       <c r="E17">
-        <v>2.520498353027691</v>
+        <v>0.6244663244897453</v>
       </c>
       <c r="F17">
-        <v>3.946658509122841</v>
+        <v>1.335148049666174</v>
       </c>
       <c r="G17">
-        <v>0.0006727731539116348</v>
+        <v>0.002324017883012411</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>13.77882514874403</v>
+        <v>4.613468198980399</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2395762660515288</v>
+        <v>0.06908065205502112</v>
       </c>
       <c r="D18">
-        <v>0.04621157644542251</v>
+        <v>0.01202386667441147</v>
       </c>
       <c r="E18">
-        <v>2.440513456730159</v>
+        <v>0.6088990123416664</v>
       </c>
       <c r="F18">
-        <v>3.831707600234296</v>
+        <v>1.311189294299879</v>
       </c>
       <c r="G18">
-        <v>0.0006753853047719593</v>
+        <v>0.002325376024265097</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>13.37561585716657</v>
+        <v>4.529963168608333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2371830704593521</v>
+        <v>0.06853310623974096</v>
       </c>
       <c r="D19">
-        <v>0.04568083651049193</v>
+        <v>0.01193234570065016</v>
       </c>
       <c r="E19">
-        <v>2.413707132467195</v>
+        <v>0.6036329010447616</v>
       </c>
       <c r="F19">
-        <v>3.793063586992673</v>
+        <v>1.303090729238761</v>
       </c>
       <c r="G19">
-        <v>0.0006762689478460879</v>
+        <v>0.002325838915274946</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>13.24008820376781</v>
+        <v>4.501736622715214</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480108866010653</v>
+        <v>0.07099901434185085</v>
       </c>
       <c r="D20">
-        <v>0.04809481280683769</v>
+        <v>0.01234478568275676</v>
       </c>
       <c r="E20">
-        <v>2.535437158997951</v>
+        <v>0.6273497534900514</v>
       </c>
       <c r="F20">
-        <v>3.968068688079285</v>
+        <v>1.339588697244238</v>
       </c>
       <c r="G20">
-        <v>0.0006722892681288977</v>
+        <v>0.00232376796816338</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>13.85393606172346</v>
+        <v>4.628945444994827</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2855414275939268</v>
+        <v>0.07931815037034085</v>
       </c>
       <c r="D21">
-        <v>0.05672266280647875</v>
+        <v>0.01374116343618681</v>
       </c>
       <c r="E21">
-        <v>2.96666902232937</v>
+        <v>0.7073815280194395</v>
       </c>
       <c r="F21">
-        <v>4.577932161166274</v>
+        <v>1.463169854790635</v>
       </c>
       <c r="G21">
-        <v>0.0006588230363632687</v>
+        <v>0.002317021099257929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>15.99495905502499</v>
+        <v>5.059667523342455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3111104170651231</v>
+        <v>0.08478168316780454</v>
       </c>
       <c r="D22">
-        <v>0.06284604745621181</v>
+        <v>0.01466218457728274</v>
       </c>
       <c r="E22">
-        <v>3.26938824565957</v>
+        <v>0.7599671772599095</v>
       </c>
       <c r="F22">
-        <v>4.996397152420997</v>
+        <v>1.544667555240125</v>
       </c>
       <c r="G22">
-        <v>0.0006498962311708434</v>
+        <v>0.002312768120562306</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>17.46579069682014</v>
+        <v>5.343714382450571</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2973553820377077</v>
+        <v>0.08186319461719904</v>
       </c>
       <c r="D23">
-        <v>0.05952622007087882</v>
+        <v>0.01416981774028869</v>
       </c>
       <c r="E23">
-        <v>3.105590736284142</v>
+        <v>0.7318741492869663</v>
       </c>
       <c r="F23">
-        <v>4.770975434374208</v>
+        <v>1.501102581173711</v>
       </c>
       <c r="G23">
-        <v>0.0006546761534259713</v>
+        <v>0.002315023756898066</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>16.67329150582918</v>
+        <v>5.19187566491928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2474123613197463</v>
+        <v>0.07086347333060417</v>
       </c>
       <c r="D24">
-        <v>0.04796052111666427</v>
+        <v>0.01232209764616954</v>
       </c>
       <c r="E24">
-        <v>2.528678137221547</v>
+        <v>0.6260460897340607</v>
       </c>
       <c r="F24">
-        <v>3.958384027894084</v>
+        <v>1.33758086846484</v>
       </c>
       <c r="G24">
-        <v>0.0006725080476612799</v>
+        <v>0.002323880897580954</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>13.81996002576705</v>
+        <v>4.621947444414047</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.196907434664908</v>
+        <v>0.05910487357310501</v>
       </c>
       <c r="D25">
-        <v>0.03697971028762481</v>
+        <v>0.01036203391920765</v>
       </c>
       <c r="E25">
-        <v>1.970599357784835</v>
+        <v>0.5129541931939059</v>
       </c>
       <c r="F25">
-        <v>3.145790019094363</v>
+        <v>1.164202196230377</v>
       </c>
       <c r="G25">
-        <v>0.0006915307337142294</v>
+        <v>0.002334112758888872</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>10.97170081795042</v>
+        <v>4.017647422946709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05052846209076733</v>
+        <v>0.1616642655404945</v>
       </c>
       <c r="D2">
-        <v>0.008943546438445082</v>
+        <v>0.02970708391200105</v>
       </c>
       <c r="E2">
-        <v>0.4304237066138796</v>
+        <v>1.594460465120534</v>
       </c>
       <c r="F2">
-        <v>1.038957906139956</v>
+        <v>2.584235742140578</v>
       </c>
       <c r="G2">
-        <v>0.002342237695844014</v>
+        <v>0.0007056320110814716</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>3.581084263747925</v>
+        <v>9.006164563466143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04476206481484724</v>
+        <v>0.1386272236736943</v>
       </c>
       <c r="D3">
-        <v>0.007995848526245908</v>
+        <v>0.025117019496399</v>
       </c>
       <c r="E3">
-        <v>0.3748685171766653</v>
+        <v>1.353986092680429</v>
       </c>
       <c r="F3">
-        <v>0.9555018548654601</v>
+        <v>2.219743332004612</v>
       </c>
       <c r="G3">
-        <v>0.00234811694982799</v>
+        <v>0.0007153513488035331</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>3.290152896055872</v>
+        <v>7.73154917412495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04124261813031183</v>
+        <v>0.1248020242019265</v>
       </c>
       <c r="D4">
-        <v>0.007420112891711739</v>
+        <v>0.02242287203783988</v>
       </c>
       <c r="E4">
-        <v>0.3409164150051254</v>
+        <v>1.211606285751643</v>
       </c>
       <c r="F4">
-        <v>0.9049358929064368</v>
+        <v>2.002049939305664</v>
       </c>
       <c r="G4">
-        <v>0.002351912108017545</v>
+        <v>0.0007214268425340552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>3.113860341885299</v>
+        <v>6.970712635479288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03981353979416724</v>
+        <v>0.1192357591110351</v>
       </c>
       <c r="D5">
-        <v>0.007186965551756685</v>
+        <v>0.02135083120818138</v>
       </c>
       <c r="E5">
-        <v>0.3271169890140158</v>
+        <v>1.154679014022506</v>
       </c>
       <c r="F5">
-        <v>0.8844966276862749</v>
+        <v>1.91463890282337</v>
       </c>
       <c r="G5">
-        <v>0.002353505441391185</v>
+        <v>0.0007239332906981952</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>3.042596276585243</v>
+        <v>6.665300722229119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03957654638250574</v>
+        <v>0.1183152230017868</v>
       </c>
       <c r="D6">
-        <v>0.007148338117151098</v>
+        <v>0.0211742379628781</v>
       </c>
       <c r="E6">
-        <v>0.3248276933736634</v>
+        <v>1.145286168558968</v>
       </c>
       <c r="F6">
-        <v>0.8811126802679041</v>
+        <v>1.90019659820905</v>
       </c>
       <c r="G6">
-        <v>0.002353772843655402</v>
+        <v>0.0007243514301350026</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>3.030797410986395</v>
+        <v>6.614844552026625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04122332458327094</v>
+        <v>0.1247266976465937</v>
       </c>
       <c r="D7">
-        <v>0.007416962736222388</v>
+        <v>0.02240831601777771</v>
       </c>
       <c r="E7">
-        <v>0.3407301688095856</v>
+        <v>1.210834399438355</v>
       </c>
       <c r="F7">
-        <v>0.9046595708997387</v>
+        <v>2.000866106462141</v>
       </c>
       <c r="G7">
-        <v>0.002351933406542927</v>
+        <v>0.0007214605170254018</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392824</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>3.112896930884858</v>
+        <v>6.966576015246858</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04853570168489796</v>
+        <v>0.1536465899730075</v>
       </c>
       <c r="D8">
-        <v>0.008615455172794384</v>
+        <v>0.0280951615803815</v>
       </c>
       <c r="E8">
-        <v>0.4112330468379781</v>
+        <v>1.510299793044851</v>
       </c>
       <c r="F8">
-        <v>1.010039843139111</v>
+        <v>2.457140665880402</v>
       </c>
       <c r="G8">
-        <v>0.002344226522347518</v>
+        <v>0.0007089631371075704</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>3.480278027715315</v>
+        <v>8.561615141875677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06305247523309276</v>
+        <v>0.2135628589115299</v>
       </c>
       <c r="D9">
-        <v>0.01101820639424744</v>
+        <v>0.04052597297128102</v>
       </c>
       <c r="E9">
-        <v>0.5509232592974627</v>
+        <v>2.152047299930018</v>
       </c>
       <c r="F9">
-        <v>1.222218960642749</v>
+        <v>3.412755547217159</v>
       </c>
       <c r="G9">
-        <v>0.002330574835277527</v>
+        <v>0.0006851240480438236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>4.219864929822393</v>
+        <v>11.90691495048605</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07384021095181481</v>
+        <v>0.2606497903193912</v>
       </c>
       <c r="D10">
-        <v>0.0128208404012895</v>
+        <v>0.05095437926064506</v>
       </c>
       <c r="E10">
-        <v>0.6546786155740136</v>
+        <v>2.679009966977958</v>
       </c>
       <c r="F10">
-        <v>1.381719871913816</v>
+        <v>4.172877851327911</v>
       </c>
       <c r="G10">
-        <v>0.002321423881673422</v>
+        <v>0.000667700518160387</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
-        <v>4.775787231787206</v>
+        <v>14.57262409772085</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07877756143588499</v>
+        <v>0.2830529930174492</v>
       </c>
       <c r="D11">
-        <v>0.01365020014181084</v>
+        <v>0.05613763538111272</v>
       </c>
       <c r="E11">
-        <v>0.7021797081820296</v>
+        <v>2.937608412518983</v>
       </c>
       <c r="F11">
-        <v>1.455119823126978</v>
+        <v>4.537336501337904</v>
       </c>
       <c r="G11">
-        <v>0.002317449146422014</v>
+        <v>0.0006597017081717647</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>5.03161050597248</v>
+        <v>15.85234930206343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08065175668153302</v>
+        <v>0.2917114397853311</v>
       </c>
       <c r="D12">
-        <v>0.01396569544306914</v>
+        <v>0.05818144211205123</v>
       </c>
       <c r="E12">
-        <v>0.7202150718742786</v>
+        <v>3.039024236026066</v>
       </c>
       <c r="F12">
-        <v>1.48303976134892</v>
+        <v>4.678687010994736</v>
       </c>
       <c r="G12">
-        <v>0.002315970862815239</v>
+        <v>0.0006566522800507628</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>5.128920722311477</v>
+        <v>16.3489620479354</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08024791027808931</v>
+        <v>0.289838296972718</v>
       </c>
       <c r="D13">
-        <v>0.01389768257172364</v>
+        <v>0.05773732896592065</v>
       </c>
       <c r="E13">
-        <v>0.71632864187238</v>
+        <v>3.017012496312645</v>
       </c>
       <c r="F13">
-        <v>1.477021082648264</v>
+        <v>4.648084086796104</v>
       </c>
       <c r="G13">
-        <v>0.002316288045991044</v>
+        <v>0.0006573101249299859</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>5.107943632011711</v>
+        <v>16.24142962317217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07893166058704537</v>
+        <v>0.2837616057529573</v>
       </c>
       <c r="D14">
-        <v>0.01367612683555564</v>
+        <v>0.05630403645311333</v>
       </c>
       <c r="E14">
-        <v>0.7036625070413294</v>
+        <v>2.945876757517496</v>
       </c>
       <c r="F14">
-        <v>1.45741428624936</v>
+        <v>4.548894293094548</v>
       </c>
       <c r="G14">
-        <v>0.002317326989631076</v>
+        <v>0.0006594513060541704</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>5.039607467092196</v>
+        <v>15.89294966281489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07812601590303814</v>
+        <v>0.280063347904786</v>
       </c>
       <c r="D15">
-        <v>0.01354060719010874</v>
+        <v>0.0554372699589365</v>
       </c>
       <c r="E15">
-        <v>0.6959104778898961</v>
+        <v>2.902785404030908</v>
       </c>
       <c r="F15">
-        <v>1.445420948117004</v>
+        <v>4.488594414523334</v>
       </c>
       <c r="G15">
-        <v>0.002317966865639248</v>
+        <v>0.0006607598387877253</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>4.997806726364843</v>
+        <v>15.68113938190868</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07351816499694053</v>
+        <v>0.2592081678898097</v>
       </c>
       <c r="D16">
-        <v>0.0127668354652215</v>
+        <v>0.05062589802949446</v>
       </c>
       <c r="E16">
-        <v>0.6515807523204415</v>
+        <v>2.66255130477532</v>
       </c>
       <c r="F16">
-        <v>1.376940287943825</v>
+        <v>4.149487771741491</v>
       </c>
       <c r="G16">
-        <v>0.002321687408931128</v>
+        <v>0.0006682209953530194</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>4.759128753694995</v>
+        <v>14.49053034799169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07069922541701601</v>
+        <v>0.2466876018935125</v>
       </c>
       <c r="D17">
-        <v>0.0122946071648613</v>
+        <v>0.04779804100954266</v>
       </c>
       <c r="E17">
-        <v>0.6244663244897453</v>
+        <v>2.520498353027719</v>
       </c>
       <c r="F17">
-        <v>1.335148049666174</v>
+        <v>3.946658509122813</v>
       </c>
       <c r="G17">
-        <v>0.002324017883012411</v>
+        <v>0.0006727731540315173</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>4.613468198980399</v>
+        <v>13.77882514874392</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06908065205502112</v>
+        <v>0.2395762660515715</v>
       </c>
       <c r="D18">
-        <v>0.01202386667441147</v>
+        <v>0.04621157644542251</v>
       </c>
       <c r="E18">
-        <v>0.6088990123416664</v>
+        <v>2.440513456730173</v>
       </c>
       <c r="F18">
-        <v>1.311189294299879</v>
+        <v>3.831707600234353</v>
       </c>
       <c r="G18">
-        <v>0.002325376024265097</v>
+        <v>0.0006753853047195365</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>4.529963168608333</v>
+        <v>13.37561585716668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06853310623974096</v>
+        <v>0.2371830704592099</v>
       </c>
       <c r="D19">
-        <v>0.01193234570065016</v>
+        <v>0.04568083651060562</v>
       </c>
       <c r="E19">
-        <v>0.6036329010447616</v>
+        <v>2.413707132467209</v>
       </c>
       <c r="F19">
-        <v>1.303090729238761</v>
+        <v>3.793063586992673</v>
       </c>
       <c r="G19">
-        <v>0.002325838915274946</v>
+        <v>0.0006762689477824721</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
-        <v>4.501736622715214</v>
+        <v>13.24008820376781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07099901434185085</v>
+        <v>0.2480108866010227</v>
       </c>
       <c r="D20">
-        <v>0.01234478568275676</v>
+        <v>0.04809481280683059</v>
       </c>
       <c r="E20">
-        <v>0.6273497534900514</v>
+        <v>2.535437158997951</v>
       </c>
       <c r="F20">
-        <v>1.339588697244238</v>
+        <v>3.968068688079285</v>
       </c>
       <c r="G20">
-        <v>0.00232376796816338</v>
+        <v>0.0006722892681291482</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.628945444994827</v>
+        <v>13.85393606172352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07931815037034085</v>
+        <v>0.2855414275941968</v>
       </c>
       <c r="D21">
-        <v>0.01374116343618681</v>
+        <v>0.05672266280632243</v>
       </c>
       <c r="E21">
-        <v>0.7073815280194395</v>
+        <v>2.966669022329413</v>
       </c>
       <c r="F21">
-        <v>1.463169854790635</v>
+        <v>4.577932161166302</v>
       </c>
       <c r="G21">
-        <v>0.002317021099257929</v>
+        <v>0.0006588230363613219</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>5.059667523342455</v>
+        <v>15.99495905502522</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08478168316780454</v>
+        <v>0.3111104170652226</v>
       </c>
       <c r="D22">
-        <v>0.01466218457728274</v>
+        <v>0.0628460474562047</v>
       </c>
       <c r="E22">
-        <v>0.7599671772599095</v>
+        <v>3.269388245659584</v>
       </c>
       <c r="F22">
-        <v>1.544667555240125</v>
+        <v>4.996397152421054</v>
       </c>
       <c r="G22">
-        <v>0.002312768120562306</v>
+        <v>0.0006498962312417309</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>5.343714382450571</v>
+        <v>17.46579069682025</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08186319461719904</v>
+        <v>0.2973553820379351</v>
       </c>
       <c r="D23">
-        <v>0.01416981774028869</v>
+        <v>0.05952622007075092</v>
       </c>
       <c r="E23">
-        <v>0.7318741492869663</v>
+        <v>3.105590736284114</v>
       </c>
       <c r="F23">
-        <v>1.501102581173711</v>
+        <v>4.770975434374208</v>
       </c>
       <c r="G23">
-        <v>0.002315023756898066</v>
+        <v>0.000654676153426746</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>5.19187566491928</v>
+        <v>16.67329150582907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07086347333060417</v>
+        <v>0.2474123613203005</v>
       </c>
       <c r="D24">
-        <v>0.01232209764616954</v>
+        <v>0.04796052111677795</v>
       </c>
       <c r="E24">
-        <v>0.6260460897340607</v>
+        <v>2.528678137221505</v>
       </c>
       <c r="F24">
-        <v>1.33758086846484</v>
+        <v>3.958384027894084</v>
       </c>
       <c r="G24">
-        <v>0.002323880897580954</v>
+        <v>0.0006725080476619588</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.621947444414047</v>
+        <v>13.81996002576699</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05910487357310501</v>
+        <v>0.1969074346648938</v>
       </c>
       <c r="D25">
-        <v>0.01036203391920765</v>
+        <v>0.03697971028762481</v>
       </c>
       <c r="E25">
-        <v>0.5129541931939059</v>
+        <v>1.970599357784863</v>
       </c>
       <c r="F25">
-        <v>1.164202196230377</v>
+        <v>3.145790019094392</v>
       </c>
       <c r="G25">
-        <v>0.002334112758888872</v>
+        <v>0.0006915307337139198</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>4.017647422946709</v>
+        <v>10.97170081795036</v>
       </c>
     </row>
   </sheetData>
